--- a/datamining/final_data/sorted1964_nltk.xlsx
+++ b/datamining/final_data/sorted1964_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FP2"/>
+  <dimension ref="A1:EU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,392 +442,392 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>briefing</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>journals</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>education</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>book</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>briefing</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>journals</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>art</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>artistically</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>children</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>group</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>child</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>artistically</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>special</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>plea</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>attacks</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>among</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>economically</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>community-action</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>opening</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>economically</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>underachiever</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>plea</t>
+          <t>gowan</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>attacks</t>
+          <t>report</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>opening</t>
+          <t>fulfillment</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>gifts</t>
+          <t>ethnology</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>fulfillment</t>
+          <t>qualifications</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>qualifications</t>
+          <t>able</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>underachiever</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>gowan</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>crow</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>ethnology</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>administrators</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>crow</t>
+          <t>opinions</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>community-action</t>
+          <t>responsibility</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>license</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>page</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>pulls</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>leg</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>picasso</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>picasso</t>
+          <t>tribulations</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>leg</t>
+          <t>artistic</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>pulls</t>
+          <t>failures</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>opinions</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>administrators</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>very</t>
+          <t>successes</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>school</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>self-initiated</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>responsibility</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>time</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>science</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>balance</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
+          <t>arts</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>guidance</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
           <t>nagc</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>successes</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>failures</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>become</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
@@ -842,452 +842,347 @@
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>culturally-disadvantaged</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>self-initiated</t>
+          <t>disabilities</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>disabilities</t>
+          <t>elementary-school</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>models</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>persons</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>re-creation</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>culturally-disadvantaged</t>
+          <t>realistic</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
+          <t>evaluating</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>theories</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>areas</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
           <t>evolution</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>artistic</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>re-creation</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>persons</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>study</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>search</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>balance</t>
+          <t>expressive</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>females</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>tribulations</t>
+          <t>modes</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>its</t>
+          <t>distressed</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>realistic</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>human-values</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>theories</t>
+          <t>survival</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>distressed</t>
+          <t>imagination</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>maximum</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>contribute</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>expressive</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>help</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>elementary-school</t>
+          <t>educational-attitudes</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>graduates</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>modes</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>high-achieving</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>secondary-school</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>additional</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>costs</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>elementary</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
           <t>per</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>elementary</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>pupil</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>high-ability</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>costs</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>survival</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>educational-attitudes</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>high-achieving</t>
-        </is>
-      </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>experiences</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>insights</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
           <t>ohio</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>secondary-school</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>additional</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>graduates</t>
-        </is>
-      </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>imagination</t>
+          <t>readers</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>human-values</t>
+          <t>submit</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>intrinsic</t>
+          <t>merit</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>invited</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>contribute</t>
+          <t>invitation</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>citations</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>maximum</t>
+          <t>nominations</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>deeper</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>readings</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>ld</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>better</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>brains</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>insights</t>
+          <t>current</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>involvment</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>shares</t>
+          <t>developments</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>submit</t>
+          <t>high-school</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>new-york</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>own</t>
+          <t>state</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>my</t>
+          <t>students</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>citations</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>invitation</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>invited</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>merit</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>nominations</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>readers</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>readings</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>ld</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
           <t>review</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>brains</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>deeper</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>developments</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>involvment</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>new-york</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>students</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>high-school</t>
         </is>
       </c>
     </row>
@@ -1299,160 +1194,160 @@
         <v>1964</v>
       </c>
       <c r="C2" t="n">
-        <v>2.91</v>
+        <v>2.98</v>
       </c>
       <c r="D2" t="n">
-        <v>2.85</v>
+        <v>2.18</v>
       </c>
       <c r="E2" t="n">
-        <v>2.73</v>
+        <v>2.18</v>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="G2" t="n">
-        <v>2.29</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>2.18</v>
+        <v>1.65</v>
       </c>
       <c r="J2" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="K2" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="L2" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.73</v>
+        <v>1.19</v>
       </c>
       <c r="N2" t="n">
-        <v>1.62</v>
+        <v>1.19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.61</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="T2" t="n">
-        <v>1.16</v>
+        <v>0.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="X2" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.66</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="AX2" t="n">
         <v>0.6</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="BC2" t="n">
         <v>0.58</v>
@@ -1464,34 +1359,34 @@
         <v>0.58</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="BP2" t="n">
         <v>0.5</v>
@@ -1512,37 +1407,37 @@
         <v>0.5</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="CE2" t="n">
         <v>0.49</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="CG2" t="n">
         <v>0.48</v>
@@ -1551,61 +1446,61 @@
         <v>0.48</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="DB2" t="n">
         <v>0.45</v>
@@ -1617,10 +1512,10 @@
         <v>0.45</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="DG2" t="n">
         <v>0.44</v>
@@ -1638,16 +1533,16 @@
         <v>0.44</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="DP2" t="n">
         <v>0.41</v>
@@ -1686,127 +1581,64 @@
         <v>0.41</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
